--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62963E23-3504-4B34-88E7-7272928B99B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A5F74-9750-438D-822C-9968E3C14EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -73,13 +76,19 @@
   </si>
   <si>
     <t>Voto_Blanco</t>
+  </si>
+  <si>
+    <t>Emporia</t>
+  </si>
+  <si>
+    <t>Atlas Intel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +111,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +155,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +232,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -211,6 +266,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="16">
+          <cell r="A16">
+            <v>45195</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Emporia</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>45197</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,16 +620,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -567,23 +651,22 @@
       <c r="D2" s="9">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E2" s="9">
-        <v>8.6999999999999994E-2</v>
+      <c r="E2" s="5">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F2" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G2" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H2" s="5">
         <v>0.13300000000000001</v>
+      </c>
+      <c r="H2" s="9">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I2" s="6">
         <v>0.23200000000000001</v>
       </c>
       <c r="J2" s="3">
-        <f>1-SUM(C2:I2)</f>
         <v>7.7999999999999958E-2</v>
       </c>
     </row>
@@ -600,23 +683,22 @@
       <c r="D3" s="9">
         <v>0.1192</v>
       </c>
-      <c r="E3" s="9">
-        <v>8.4199999999999997E-2</v>
+      <c r="E3" s="3">
+        <v>2.92E-2</v>
       </c>
       <c r="F3" s="9">
         <v>0.1283</v>
       </c>
       <c r="G3" s="3">
-        <v>2.92E-2</v>
-      </c>
-      <c r="H3" s="3">
         <v>0.14810000000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J13" si="0">1-SUM(C3:I3)</f>
         <v>0.17079999999999995</v>
       </c>
     </row>
@@ -633,23 +715,22 @@
       <c r="D4" s="9">
         <v>0.158</v>
       </c>
-      <c r="E4" s="9">
-        <v>0.14000000000000001</v>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
         <v>0.1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I4" s="3">
         <v>0.17199999999999999</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
         <v>7.8000000000000069E-2</v>
       </c>
     </row>
@@ -666,23 +747,22 @@
       <c r="D5" s="9">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.13200000000000001</v>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5" s="9">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
         <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.13200000000000001</v>
       </c>
       <c r="I5" s="3">
         <v>0.13500000000000001</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
         <v>0.13200000000000001</v>
       </c>
     </row>
@@ -699,23 +779,22 @@
       <c r="D6" s="9">
         <v>0.154</v>
       </c>
-      <c r="E6" s="9">
-        <v>9.9000000000000005E-2</v>
+      <c r="E6" s="3">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F6" s="9">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H6" s="3">
         <v>0.13800000000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I6" s="3">
         <v>0.192</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
         <v>9.2999999999999972E-2</v>
       </c>
     </row>
@@ -732,23 +811,22 @@
       <c r="D7" s="9">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E7" s="9">
-        <v>6.8000000000000005E-2</v>
+      <c r="E7" s="3">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F7" s="9">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H7" s="3">
         <v>0.16800000000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I7" s="3">
         <v>0.19</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
         <v>0.12199999999999989</v>
       </c>
     </row>
@@ -765,23 +843,22 @@
       <c r="D8" s="9">
         <v>0.13450000000000001</v>
       </c>
-      <c r="E8" s="9">
-        <v>9.7699999999999995E-2</v>
+      <c r="E8" s="3">
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="F8" s="9">
         <v>0.16120000000000001</v>
       </c>
       <c r="G8" s="3">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="H8" s="3">
         <v>6.93E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
         <v>0.14780000000000004</v>
       </c>
     </row>
@@ -798,23 +875,22 @@
       <c r="D9" s="9">
         <v>0.158</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.107</v>
+      <c r="E9" s="3">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F9" s="9">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H9" s="3">
         <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.107</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
         <v>0.10300000000000009</v>
       </c>
     </row>
@@ -831,23 +907,22 @@
       <c r="D10" s="9">
         <v>0.154</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.14299999999999999</v>
+      <c r="E10" s="3">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F10" s="9">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H10" s="3">
         <v>7.8E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.14299999999999999</v>
       </c>
       <c r="I10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -864,23 +939,22 @@
       <c r="D11" s="9">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E11" s="9">
-        <v>0.105</v>
+      <c r="E11" s="3">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F11" s="9">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H11" s="3">
         <v>0.107</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.105</v>
       </c>
       <c r="I11" s="3">
         <v>0.21299999999999999</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
@@ -897,23 +971,22 @@
       <c r="D12" s="9">
         <v>0.17219999999999999</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.10050000000000001</v>
+      <c r="E12" s="3">
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="F12" s="9">
         <v>0.20269999999999999</v>
       </c>
       <c r="G12" s="3">
-        <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="H12" s="3">
         <v>3.32E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.10050000000000001</v>
       </c>
       <c r="I12" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
         <v>4.7499999999999987E-2</v>
       </c>
     </row>
@@ -930,24 +1003,218 @@
       <c r="D13" s="9">
         <v>0.16</v>
       </c>
-      <c r="E13" s="9">
-        <v>0.11</v>
+      <c r="E13" s="3">
+        <v>0.04</v>
       </c>
       <c r="F13" s="9">
         <v>0.05</v>
       </c>
       <c r="G13" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="H13" s="3">
         <v>0.05</v>
       </c>
+      <c r="H13" s="9">
+        <v>0.11</v>
+      </c>
       <c r="I13" s="3">
-        <v>0.29000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <f>+[1]Hoja1!A16</f>
+        <v>45195</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>+[1]Hoja1!B16</f>
+        <v>Emporia</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.109</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.1359999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f>+[1]Hoja1!A17</f>
+        <v>45197</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.248</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.11199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>45199</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>45201</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.1183</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.2492</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.19579999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>45204</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.1080000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>45207</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.121</v>
+      </c>
+      <c r="F19" s="9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.112</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>4.1999999999999926E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A5F74-9750-438D-822C-9968E3C14EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26F484-6230-4EE9-9415-DC0C2A75338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1217,166 @@
         <v>4.1999999999999926E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45208</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.255</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.111</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.16500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45209</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="D21" s="9">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>45210</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.371</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.15400000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>45211</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.107</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.24900000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>45213</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.247</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8.8000000000000078E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26F484-6230-4EE9-9415-DC0C2A75338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038A84F-90F7-400F-B41D-E29D6BBA4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -118,7 +118,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +254,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,6 +1386,294 @@
         <v>8.8000000000000078E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>45212</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.16400000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>45215</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F26" s="9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.16700000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>45216</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.16900000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>45216</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>6.3400000000000012E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>45217</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.15800000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>45218</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F30" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.16300000000000014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>45217</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.314</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.10299999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>45218</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9.9999999999999756E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>45219</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.16500000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038A84F-90F7-400F-B41D-E29D6BBA4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F6FF5-B7B7-4464-98CA-78A0AA7950D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -285,7 +285,7 @@
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="16">
           <cell r="A16">
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,6 +1674,134 @@
         <v>0.16500000000000004</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>45222</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>6.800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>45223</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6.9000000000000172E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>45224</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="G36" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>6.9000000000000061E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>45224</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="F37" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6.4000000000000057E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F6FF5-B7B7-4464-98CA-78A0AA7950D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC60843-7FA1-486A-AF30-60519057F262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -285,7 +285,7 @@
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="16">
           <cell r="A16">
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,7 @@
       <c r="A37" s="14">
         <v>45224</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="9">
@@ -1800,6 +1800,38 @@
       </c>
       <c r="J37" s="3">
         <v>6.4000000000000057E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>45225</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7.800000000000018E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC60843-7FA1-486A-AF30-60519057F262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D941CDC-DA06-453F-A26D-2F6E4803241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,6 +1834,70 @@
         <v>7.800000000000018E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>45225</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>45225</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.1915</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.1673</v>
+      </c>
+      <c r="H40" s="9">
+        <v>3.3E-3</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.5800000000000165E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D941CDC-DA06-453F-A26D-2F6E4803241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22788FD9-4E43-453C-809E-CBF23B1AF185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Chontico</t>
   </si>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +256,22 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1914,102 @@
         <v>3.5800000000000165E-2</v>
       </c>
     </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>45226</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="D41" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="E41" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0</v>
+      </c>
+      <c r="I41" s="22">
+        <v>0</v>
+      </c>
+      <c r="J41" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>45226</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="G42" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
+      <c r="I42" s="22">
+        <v>0</v>
+      </c>
+      <c r="J42" s="22">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>45226</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="D43" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="I43" s="22">
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22788FD9-4E43-453C-809E-CBF23B1AF185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FCA2F-6794-49AA-BCB6-A3B17F701C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Chontico</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Guarumo</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
   <si>
     <t>Mosqueteros</t>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>Encuestadora</t>
-  </si>
-  <si>
-    <t>Diana_Rojas</t>
   </si>
   <si>
     <t>Danis_Renteria</t>
@@ -199,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,9 +209,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,24 +610,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="1"/>
+    <col min="3" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>12</v>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -645,410 +636,332 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.14799999999999999</v>
       </c>
       <c r="E2" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G2" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H2" s="9">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="J2" s="3">
-        <v>7.7999999999999958E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45138</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.32019999999999998</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.1192</v>
       </c>
       <c r="E3" s="3">
         <v>2.92E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0.1283</v>
       </c>
       <c r="G3" s="3">
         <v>0.14810000000000001</v>
       </c>
-      <c r="H3" s="9">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.17079999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="21">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45142</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.158</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="G4" s="3">
         <v>0.1</v>
       </c>
-      <c r="H4" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="J4" s="3">
-        <v>7.8000000000000069E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="21">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45144</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.27600000000000002</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.16500000000000001</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G5" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H5" s="9">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="21">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.154</v>
       </c>
       <c r="E6" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G6" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H6" s="9">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.192</v>
-      </c>
-      <c r="J6" s="3">
-        <v>9.2999999999999972E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="21">
+        <v>0.3839999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45159</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.22900000000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E7" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="G7" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H7" s="9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.12199999999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="21">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45160</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
         <v>0.34279999999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.13450000000000001</v>
       </c>
       <c r="E8" s="3">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0.16120000000000001</v>
       </c>
       <c r="G8" s="3">
         <v>6.93E-2</v>
       </c>
-      <c r="H8" s="9">
-        <v>9.7699999999999995E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.14780000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="21">
+        <v>0.24549999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45169</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.438</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0.158</v>
       </c>
       <c r="E9" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="G9" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H9" s="9">
-        <v>0.107</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.10300000000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="21">
+        <v>0.21000000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45180</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
         <v>0.436</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.154</v>
       </c>
       <c r="E10" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G10" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="H10" s="9">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="21">
+        <v>0.17800000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45185</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.22800000000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0.17399999999999999</v>
       </c>
       <c r="E11" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G11" s="3">
         <v>0.107</v>
       </c>
-      <c r="H11" s="9">
-        <v>0.105</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="J11" s="3">
-        <v>6.0000000000000053E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="21">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45186</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
         <v>0.35139999999999999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.17219999999999999</v>
       </c>
       <c r="E12" s="3">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>0.20269999999999999</v>
       </c>
       <c r="G12" s="3">
         <v>3.32E-2</v>
       </c>
-      <c r="H12" s="9">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4.7499999999999987E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="21">
+        <v>0.14970000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45188</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.18</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0.16</v>
       </c>
       <c r="E13" s="3">
         <v>0.04</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>0.05</v>
       </c>
       <c r="G13" s="3">
         <v>0.05</v>
       </c>
-      <c r="H13" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="H13" s="21">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <f>+[1]Hoja1!A16</f>
         <v>45195</v>
       </c>
@@ -1056,958 +969,804 @@
         <f>+[1]Hoja1!B16</f>
         <v>Emporia</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.28399999999999997</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0.16500000000000001</v>
       </c>
       <c r="E14" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G14" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H14" s="9">
-        <v>0.109</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.127</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.1359999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="H14" s="21">
+        <v>0.37200000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <f>+[1]Hoja1!A17</f>
         <v>45197</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
         <v>0.248</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.26600000000000001</v>
       </c>
       <c r="E15" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G15" s="3">
         <v>0.13</v>
       </c>
-      <c r="H15" s="9">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.107</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.11199999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="H15" s="21">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>45199</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>45201</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.1183</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.2492</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0.19579999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>45204</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0.21799999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>45207</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="F19" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="H19" s="21">
+        <v>4.1999999999999926E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>45208</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="9">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="E16" s="9">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J16" s="9">
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>45201</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.40670000000000001</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.1183</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.2492</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0.19579999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>45204</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E18" s="9">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I18" s="9">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.1080000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>45207</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C20" s="8">
         <v>0.38700000000000001</v>
       </c>
-      <c r="E19" s="9">
-        <v>0.121</v>
-      </c>
-      <c r="F19" s="9">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.112</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>4.1999999999999926E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>45208</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.255</v>
       </c>
       <c r="E20" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>0.111</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="H20" s="21">
         <v>0.16500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>45209</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8">
         <v>0.44330000000000003</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>7.9200000000000007E-2</v>
       </c>
       <c r="E21" s="3">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0.28749999999999998</v>
       </c>
       <c r="G21" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="21">
         <v>1.419999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>45210</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.371</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>0.27200000000000002</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>0.11600000000000001</v>
       </c>
       <c r="G22" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="H22" s="21">
         <v>0.15400000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>45211</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.28799999999999998</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>0.107</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="H23" s="21">
         <v>0.24900000000000011</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>45213</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="9">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8">
         <v>0.247</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.30399999999999999</v>
       </c>
       <c r="E24" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="G24" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.156</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8.8000000000000078E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="H24" s="21">
+        <v>0.24400000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>45212</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.3</v>
       </c>
       <c r="E25" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>0.10100000000000001</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="H25" s="21">
         <v>0.16400000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>45215</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.30299999999999999</v>
       </c>
       <c r="E26" s="3">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>9.4E-2</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="H26" s="21">
         <v>0.16700000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>45216</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.29299999999999998</v>
       </c>
       <c r="E27" s="3">
         <v>0.1</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>0.1</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="H27" s="21">
         <v>0.16900000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>45216</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8">
         <v>0.4733</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.14680000000000001</v>
       </c>
       <c r="E28" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>0.30149999999999999</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="H28" s="21">
         <v>6.3400000000000012E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>45217</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8">
         <v>0.33900000000000002</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.29599999999999999</v>
       </c>
       <c r="E29" s="3">
         <v>0.107</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>0.1</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="H29" s="21">
         <v>0.15800000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>45218</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8">
         <v>0.34899999999999998</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.28899999999999998</v>
       </c>
       <c r="E30" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="H30" s="21">
         <v>0.16300000000000014</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>45217</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="B31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8">
         <v>0.314</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>0.30499999999999999</v>
       </c>
       <c r="E31" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>0.10100000000000001</v>
       </c>
       <c r="G31" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H31" s="9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0.10299999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="H31" s="21">
+        <v>0.15600000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>45218</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>0.32</v>
       </c>
       <c r="E32" s="3">
         <v>0.04</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>0.05</v>
       </c>
       <c r="G32" s="3">
         <v>0.05</v>
       </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9.9999999999999756E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="H32" s="21">
+        <v>0.25999999999999979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>45219</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8">
         <v>0.36199999999999999</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.28699999999999998</v>
       </c>
       <c r="E33" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="H33" s="21">
         <v>0.16500000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>45222</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="B34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8">
         <v>0.36899999999999999</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>0.28799999999999998</v>
       </c>
       <c r="E34" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>0.09</v>
       </c>
       <c r="G34" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="H34" s="21">
         <v>6.800000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>45223</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8">
         <v>0.372</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>0.29199999999999998</v>
       </c>
       <c r="E35" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="G35" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="H35" s="21">
         <v>6.9000000000000172E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>45224</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="8">
         <v>0.36399999999999999</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.29899999999999999</v>
       </c>
       <c r="E36" s="3">
         <v>0.09</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>0.09</v>
       </c>
       <c r="G36" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="H36" s="21">
         <v>6.9000000000000061E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>45224</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8">
         <v>0.35499999999999998</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.27600000000000002</v>
       </c>
       <c r="E37" s="3">
         <v>0.111</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="G37" s="3">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="H37" s="21">
         <v>6.4000000000000057E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>45225</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8">
         <v>0.36</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.30399999999999999</v>
       </c>
       <c r="E38" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="G38" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="H38" s="21">
         <v>7.800000000000018E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>45225</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.33100000000000002</v>
       </c>
       <c r="E39" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G39" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="H39" s="21">
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>45225</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8">
         <v>0.32719999999999999</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>0.1915</v>
       </c>
       <c r="E40" s="3">
         <v>1.15E-2</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>0.26340000000000002</v>
       </c>
       <c r="G40" s="3">
         <v>0.1673</v>
       </c>
-      <c r="H40" s="9">
-        <v>3.3E-3</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3.5800000000000165E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="H40" s="21">
+        <v>3.9100000000000135E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <v>45226</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="23">
+      <c r="B41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="22">
         <v>0.35</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>0.32</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>0.09</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>0.09</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>0.09</v>
       </c>
-      <c r="H41" s="23">
-        <v>0</v>
-      </c>
-      <c r="I41" s="22">
-        <v>0</v>
-      </c>
-      <c r="J41" s="22">
+      <c r="H41" s="21">
+        <v>6.0000000000000164E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>45226</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0.34</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.1399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>45226</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>45226</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
-        <v>45226</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D42" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0.11</v>
-      </c>
-      <c r="F42" s="23">
-        <v>0.06</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0.06</v>
-      </c>
-      <c r="H42" s="23">
-        <v>0</v>
-      </c>
-      <c r="I42" s="22">
-        <v>0</v>
-      </c>
-      <c r="J42" s="22">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
-        <v>45226</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0.32</v>
-      </c>
-      <c r="D43" s="23">
-        <v>0.33</v>
-      </c>
-      <c r="E43" s="22">
+      <c r="G44" s="21">
         <v>0.08</v>
       </c>
-      <c r="F43" s="23">
-        <v>0.09</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0.04</v>
-      </c>
-      <c r="H43" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22">
-        <v>0.11</v>
+      <c r="H44" s="21">
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Encuestas_Cali.xlsx
+++ b/Encuestas_Cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FCA2F-6794-49AA-BCB6-A3B17F701C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9476D1-7CE2-485B-8A89-3CE1180A4818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{769A54F1-79BA-4928-8CB3-2BBD2BCAC726}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Chontico</t>
   </si>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7224E0C2-865C-4E7D-9049-FF9248EFE8E2}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,6 +1769,32 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>45227</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0.371</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E45" s="21">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F45" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G45" s="21">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H45" s="21">
+        <v>6.0999999999999943E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
